--- a/biology/Botanique/Argyreia_androyensis/Argyreia_androyensis.xlsx
+++ b/biology/Botanique/Argyreia_androyensis/Argyreia_androyensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyreia androyensis est une espèce de plantes de la famille des Convolvulaceae, endémique de Madagascar, en danger d’extinction.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’épithète androyensis fait référence à la région où la plante se trouve : la région d’Androy, au sud de Madagascar, avec le suffixe -ensis.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante a été décrite par le botaniste Thierry Deroin en 1993[2]. Le type est une plante en herbier, récoltée le 15 avril 1931 par Raymond Decary à Antanimora[3].
-Il s’agit d’une liane[4],[3], à fleur rouge violacé, poussant au soleil[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a été décrite par le botaniste Thierry Deroin en 1993. Le type est une plante en herbier, récoltée le 15 avril 1931 par Raymond Decary à Antanimora.
+Il s’agit d’une liane à fleur rouge violacé, poussant au soleil.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse dans les forêts sèches et la brousse sèche tropicale[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse dans les forêts sèches et la brousse sèche tropicale.
 </t>
         </is>
       </c>
@@ -605,12 +623,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyreia androyensis est endémique du district d’Ambovombe-Androy dans la région d’Androy, au sud de Madagascar[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyreia androyensis est endémique du district d’Ambovombe-Androy dans la région d’Androy, au sud de Madagascar.
 			Localisation de la province de Toliara sur la carte de Madagascar.
 			Localisation du district d’Ambovombe-Androy sur la carte de la province de Toliara.
-Deux sous-populations seulement sont connues, toutes les deux dans le district d’Ambovombe-Androy[4]. Le dernier spécimen collecté en 1947 provient d’Ambovombe[4].
+Deux sous-populations seulement sont connues, toutes les deux dans le district d’Ambovombe-Androy. Le dernier spécimen collecté en 1947 provient d’Ambovombe.
 </t>
         </is>
       </c>
@@ -639,10 +659,12 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est classée « espèce en danger (EN ) », c’est-à-dire en danger d’extinction par l’Union internationale pour la conservation de la nature[4].
-Elle est menacée par la disparition de son habitat en raison de la conversion de la forêt et de la brousse en terres agricoles et des feux de forêt et de brousse[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est classée « espèce en danger (EN ) », c’est-à-dire en danger d’extinction par l’Union internationale pour la conservation de la nature.
+Elle est menacée par la disparition de son habitat en raison de la conversion de la forêt et de la brousse en terres agricoles et des feux de forêt et de brousse.
 </t>
         </is>
       </c>
@@ -671,7 +693,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry Deroin, « Le genre Argyreia Lour. (Convolvulaceae) à Madagascar », Candollea, vol. 48, no 2,‎ 1993, p. 449-458 (ISSN 0373-2967).
 </t>
